--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/138.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/138.xlsx
@@ -479,13 +479,13 @@
         <v>-0.282271609988797</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.938388090468101</v>
+        <v>-1.946077433738872</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04199047903054905</v>
+        <v>0.04222700682127626</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2923546935951793</v>
+        <v>-0.2937621799548154</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.259725892405978</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.042539160984982</v>
+        <v>-2.052765337813707</v>
       </c>
       <c r="F3" t="n">
-        <v>0.022881369616736</v>
+        <v>0.02378951952928121</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2939227852448153</v>
+        <v>-0.2950134411687241</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2476837626779962</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.166428621642858</v>
+        <v>-2.178516359787491</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04988641910618329</v>
+        <v>0.05233637980272809</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3058937195421757</v>
+        <v>-0.3085072056249023</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2400940800805933</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.308187610885365</v>
+        <v>-2.322654497394134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06903786991463269</v>
+        <v>0.07142650859135932</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3354845142006223</v>
+        <v>-0.3382702859580761</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2250361909033052</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.505175109238631</v>
+        <v>-2.522391996326626</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1021941020110783</v>
+        <v>0.1045097382832595</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3162921820456275</v>
+        <v>-0.3190137116870813</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1984139972162741</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.436265219492013</v>
+        <v>-2.454330394520826</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2276516543185901</v>
+        <v>0.2322376653721343</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.379226094956156</v>
+        <v>-0.3820994695990643</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1604610685288553</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.299656549890186</v>
+        <v>-2.318323264732454</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3204902722271106</v>
+        <v>0.3250558426073821</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3999208165966959</v>
+        <v>-0.4038293653360585</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1103666883738681</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.021914521652806</v>
+        <v>-2.041368202416074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.436951008198443</v>
+        <v>0.4439884399966229</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3473561652278009</v>
+        <v>-0.3512267527167999</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.04592532852148234</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.667292201140537</v>
+        <v>-1.688127087397804</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5140371672541496</v>
+        <v>0.5233172329199652</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2635698454829143</v>
+        <v>-0.2668023919561862</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.03772750159474023</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.108588738625324</v>
+        <v>-1.128759303001228</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4947630724060638</v>
+        <v>0.5042709055740613</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2131777456732915</v>
+        <v>-0.2168410063333815</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1412647926668231</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5380953877760225</v>
+        <v>-0.557165075891381</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3979662641230898</v>
+        <v>0.4082318622502689</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1138331534716818</v>
+        <v>-0.1165225620551357</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2650406582733841</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02711988922464395</v>
+        <v>0.007530423988921938</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2600924628504905</v>
+        <v>0.270702632327124</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01190764816546622</v>
+        <v>0.008958351021830645</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3993837244287202</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6234371106578475</v>
+        <v>0.6066596980452156</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02239180158616094</v>
+        <v>-0.01246347456798178</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1535731943301555</v>
+        <v>0.151021030267247</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.532059444842089</v>
       </c>
       <c r="E15" t="n">
-        <v>1.160618004264976</v>
+        <v>1.14447717261998</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2428065015821018</v>
+        <v>-0.2332066853843771</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3066796773352052</v>
+        <v>0.3049319997703875</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6576208581503576</v>
       </c>
       <c r="E16" t="n">
-        <v>1.709747931448101</v>
+        <v>1.695427779772469</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.625641331354999</v>
+        <v>-0.6168649822805468</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4625733921457997</v>
+        <v>0.4617689056477091</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7845216488597936</v>
       </c>
       <c r="E17" t="n">
-        <v>2.311743279906849</v>
+        <v>2.300370965326761</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8441740293617584</v>
+        <v>-0.8337668065697612</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5974701553610362</v>
+        <v>0.5966510683820365</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9155620376623806</v>
       </c>
       <c r="E18" t="n">
-        <v>2.790236080451811</v>
+        <v>2.779805496890359</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.148256785207222</v>
+        <v>-1.139500876806043</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7593632077771746</v>
+        <v>0.7589558543598111</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.046455416736882</v>
       </c>
       <c r="E19" t="n">
-        <v>3.224096670905785</v>
+        <v>3.215355362985515</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.436852810952417</v>
+        <v>-1.428651720825783</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9414531054348529</v>
+        <v>0.9401945439804896</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.170373246125784</v>
       </c>
       <c r="E20" t="n">
-        <v>3.536892993757792</v>
+        <v>3.529518290850612</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.711830968153707</v>
+        <v>-1.704229957792437</v>
       </c>
       <c r="G20" t="n">
-        <v>1.121617199660623</v>
+        <v>1.122339923465623</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.282689771856348</v>
       </c>
       <c r="E21" t="n">
-        <v>3.903727156502421</v>
+        <v>3.898034428995968</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.978158340416363</v>
+        <v>-1.971392477563092</v>
       </c>
       <c r="G21" t="n">
-        <v>1.253771992561133</v>
+        <v>1.253555905443678</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.377843001095863</v>
       </c>
       <c r="E22" t="n">
-        <v>4.256965351424508</v>
+        <v>4.252866996433327</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.253937333995516</v>
+        <v>-2.248403751730972</v>
       </c>
       <c r="G22" t="n">
-        <v>1.408738576834</v>
+        <v>1.408113676251091</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.451322894557781</v>
       </c>
       <c r="E23" t="n">
-        <v>4.372919450708295</v>
+        <v>4.368423962636387</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.547701199958483</v>
+        <v>-2.54371234857412</v>
       </c>
       <c r="G23" t="n">
-        <v>1.545020925687509</v>
+        <v>1.5450705673226</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.498839115954577</v>
       </c>
       <c r="E24" t="n">
-        <v>4.568584875515243</v>
+        <v>4.565269106300789</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.863113928989398</v>
+        <v>-2.862872291030353</v>
       </c>
       <c r="G24" t="n">
-        <v>1.62420225375367</v>
+        <v>1.624714730633579</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.520595930877949</v>
       </c>
       <c r="E25" t="n">
-        <v>4.5923924196856</v>
+        <v>4.588726238929328</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.087210140246565</v>
+        <v>-3.08828692571361</v>
       </c>
       <c r="G25" t="n">
-        <v>1.713252046866282</v>
+        <v>1.7136667005241</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.52136090956333</v>
       </c>
       <c r="E26" t="n">
-        <v>4.646653646936131</v>
+        <v>4.642911543679132</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.226284101049892</v>
+        <v>-3.229674332716982</v>
       </c>
       <c r="G26" t="n">
-        <v>1.832811004886523</v>
+        <v>1.834849232021431</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.506853589352722</v>
       </c>
       <c r="E27" t="n">
-        <v>4.638766467149042</v>
+        <v>4.634806816726497</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.361369210468855</v>
+        <v>-3.366171308639854</v>
       </c>
       <c r="G27" t="n">
-        <v>1.882481840939237</v>
+        <v>1.882896494597055</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.478666746067922</v>
       </c>
       <c r="E28" t="n">
-        <v>4.589429982109146</v>
+        <v>4.584480419080966</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.430516358030246</v>
+        <v>-3.437403404875062</v>
       </c>
       <c r="G28" t="n">
-        <v>1.864232699850969</v>
+        <v>1.865031346156696</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.438107264936729</v>
       </c>
       <c r="E29" t="n">
-        <v>4.493059507868717</v>
+        <v>4.486352046939083</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.488081674110503</v>
+        <v>-3.495930892647228</v>
       </c>
       <c r="G29" t="n">
-        <v>1.903874465567231</v>
+        <v>1.904300799609776</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.386127009256212</v>
       </c>
       <c r="E30" t="n">
-        <v>4.440982512562186</v>
+        <v>4.436323499104097</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.597683104150746</v>
+        <v>-3.606840525776926</v>
       </c>
       <c r="G30" t="n">
-        <v>1.928866108739315</v>
+        <v>1.930793372219315</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.325597378175883</v>
       </c>
       <c r="E31" t="n">
-        <v>4.250996674828873</v>
+        <v>4.245928847905329</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.544984858381533</v>
+        <v>-3.555084741050394</v>
       </c>
       <c r="G31" t="n">
-        <v>1.913758991142683</v>
+        <v>1.914760584133046</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.259197466397012</v>
       </c>
       <c r="E32" t="n">
-        <v>4.134424975202632</v>
+        <v>4.129110400151724</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.47102831240869</v>
+        <v>-3.480447812667187</v>
       </c>
       <c r="G32" t="n">
-        <v>1.825274236641252</v>
+        <v>1.825361839526707</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.191179966434863</v>
       </c>
       <c r="E33" t="n">
-        <v>3.908602257077965</v>
+        <v>3.902637960626604</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.475968385124279</v>
+        <v>-3.485845610459276</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786358114826172</v>
+        <v>1.786333294008626</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.12394859397648</v>
       </c>
       <c r="E34" t="n">
-        <v>3.74187790552901</v>
+        <v>3.735345650370284</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.438390397384516</v>
+        <v>-3.447244859031832</v>
       </c>
       <c r="G34" t="n">
-        <v>1.688872163844289</v>
+        <v>1.688567013793289</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.059531996368968</v>
       </c>
       <c r="E35" t="n">
-        <v>3.6436254292994</v>
+        <v>3.637928321648674</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.34975233783354</v>
+        <v>-3.358334500511901</v>
       </c>
       <c r="G35" t="n">
-        <v>1.623197740667125</v>
+        <v>1.623632834998215</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9975170940794346</v>
       </c>
       <c r="E36" t="n">
-        <v>3.439868417972637</v>
+        <v>3.43203233986873</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.273654631335379</v>
+        <v>-3.279030528406105</v>
       </c>
       <c r="G36" t="n">
-        <v>1.528012825476514</v>
+        <v>1.527510568933241</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9377231260859398</v>
       </c>
       <c r="E37" t="n">
-        <v>3.265554736447138</v>
+        <v>3.257959566278231</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.195304070632945</v>
+        <v>-3.199941183369671</v>
       </c>
       <c r="G37" t="n">
-        <v>1.403539345582274</v>
+        <v>1.402507091582002</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8777041740938031</v>
       </c>
       <c r="E38" t="n">
-        <v>3.145221952938716</v>
+        <v>3.136870477858718</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.077324884647068</v>
+        <v>-3.080931203431613</v>
       </c>
       <c r="G38" t="n">
-        <v>1.345248385600835</v>
+        <v>1.344626405114108</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8163905665785463</v>
       </c>
       <c r="E39" t="n">
-        <v>2.821660695512439</v>
+        <v>2.810733695600078</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.946130803390376</v>
+        <v>-2.948107708505466</v>
       </c>
       <c r="G39" t="n">
-        <v>1.215207742335961</v>
+        <v>1.212480372502144</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7522396511244315</v>
       </c>
       <c r="E40" t="n">
-        <v>2.569336644489689</v>
+        <v>2.557892787553146</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.842718517207495</v>
+        <v>-2.843374808824358</v>
       </c>
       <c r="G40" t="n">
-        <v>1.190505188685877</v>
+        <v>1.188354537847969</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6852833371611139</v>
       </c>
       <c r="E41" t="n">
-        <v>2.394987921810008</v>
+        <v>2.383706130211557</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.758567185439881</v>
+        <v>-2.758632157579926</v>
       </c>
       <c r="G41" t="n">
-        <v>1.069881855607364</v>
+        <v>1.067430434862728</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6166495002991162</v>
       </c>
       <c r="E42" t="n">
-        <v>2.168765150508432</v>
+        <v>2.155421771005618</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.662217151872725</v>
+        <v>-2.66044173339418</v>
       </c>
       <c r="G42" t="n">
-        <v>0.976441697885389</v>
+        <v>0.973339095692208</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5476242265648724</v>
       </c>
       <c r="E43" t="n">
-        <v>2.052070806842555</v>
+        <v>2.039762601436194</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.5868764803097</v>
+        <v>-2.585655150081654</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8711897511079627</v>
+        <v>0.8680754685300545</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4795017834266982</v>
       </c>
       <c r="E44" t="n">
-        <v>1.846758844298974</v>
+        <v>1.833543949028159</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.574685078750612</v>
+        <v>-2.573626543884703</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7963783469778919</v>
+        <v>0.7935341732968018</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.412985349147231</v>
       </c>
       <c r="E45" t="n">
-        <v>1.610514302901401</v>
+        <v>1.596376657237132</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.468028565709731</v>
+        <v>-2.465466181310187</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6941413995081921</v>
+        <v>0.6913205865965565</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3492762174482452</v>
       </c>
       <c r="E46" t="n">
-        <v>1.417371841195543</v>
+        <v>1.401793128065548</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.423291962180243</v>
+        <v>-2.420374786094608</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6709937970749256</v>
+        <v>0.6685219356570172</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2880450923117986</v>
       </c>
       <c r="E47" t="n">
-        <v>1.138485135254891</v>
+        <v>1.121043400760896</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.361660412166806</v>
+        <v>-2.358738125912852</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5611762799172278</v>
+        <v>0.5577407867593196</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2304598345674832</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9825154979435692</v>
+        <v>0.9647496327733922</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.311020834205774</v>
+        <v>-2.307315962175093</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4746917913003419</v>
+        <v>0.470389029576434</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1769803792101532</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7609225391382651</v>
+        <v>0.7409782822164522</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.250051416001563</v>
+        <v>-2.246121696564882</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4001285953457256</v>
+        <v>0.3956491678028177</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1283815560935182</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6387281943139342</v>
+        <v>0.6186977945547578</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.201086513200803</v>
+        <v>-2.196841423376486</v>
       </c>
       <c r="G50" t="n">
-        <v>0.3259625324718364</v>
+        <v>0.3218816980577466</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.08373252032976239</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4769344251679777</v>
+        <v>0.4551067062088927</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.152216513525953</v>
+        <v>-2.149043099000363</v>
       </c>
       <c r="G51" t="n">
-        <v>0.2674788461423976</v>
+        <v>0.2642010381783075</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.0429438559046972</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3599553721243728</v>
+        <v>0.3378619244127423</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.076353144746382</v>
+        <v>-2.071786844342065</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2361637346885878</v>
+        <v>0.2326128977314979</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.003952732156178247</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2271639982562266</v>
+        <v>0.2039915750054146</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.026341387464441</v>
+        <v>-2.021758296507079</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1379068783147051</v>
+        <v>0.1347327337650696</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.03369111248373172</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1888187552446914</v>
+        <v>0.1663150340195157</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.977467737669363</v>
+        <v>-1.973181766498501</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0783033350995393</v>
+        <v>0.07341655413926788</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.07180887891473749</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00325248308255945</v>
+        <v>-0.02190706561997925</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.96618302597473</v>
+        <v>-1.961394068236549</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03600428185782338</v>
+        <v>0.03082257118318841</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1106520301341666</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.115350143438136</v>
+        <v>-0.1413141786387654</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.857283879066214</v>
+        <v>-1.851972224111488</v>
       </c>
       <c r="G56" t="n">
-        <v>0.008181605437467217</v>
+        <v>0.004421981603377318</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.150872343521562</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2700772798240944</v>
+        <v>-0.2971874527760872</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.777958006239053</v>
+        <v>-1.771485613052055</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04414505809260964</v>
+        <v>-0.04740388543151786</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1919205714803001</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.309167147361993</v>
+        <v>-0.3356874608852586</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.764673028659875</v>
+        <v>-1.759197848318967</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1265341118144966</v>
+        <v>-0.131324529600768</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2337328523299159</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5400941936124765</v>
+        <v>-0.5704398331339229</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.721100813482887</v>
+        <v>-1.715619792949615</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1466185333530367</v>
+        <v>-0.1517593626811262</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2759384178562975</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5603158596715619</v>
+        <v>-0.5920105836290079</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.650390684440178</v>
+        <v>-1.644132918322544</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1889716083741162</v>
+        <v>-0.1942774231364784</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3181780269193724</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.6990350287887974</v>
+        <v>-0.7331096311344246</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.657460237296358</v>
+        <v>-1.65081117829036</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.233238806442377</v>
+        <v>-0.2391155000082845</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3595035585302983</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.8649782546091165</v>
+        <v>-0.9020736964548338</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.596268161758284</v>
+        <v>-1.588715332984013</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2884768058657258</v>
+        <v>-0.2950499423709968</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3994361764185216</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9390581746456421</v>
+        <v>-0.9778969139119044</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.630846480695274</v>
+        <v>-1.623407535672095</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.347642334653619</v>
+        <v>-0.3541424687543446</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4371376817595703</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.138367879487498</v>
+        <v>-1.179849305798305</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.597072648256374</v>
+        <v>-1.589714005878195</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3892040636094261</v>
+        <v>-0.3967408318546968</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.472115269000055</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.307260402451452</v>
+        <v>-1.352180242016349</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.544553258378298</v>
+        <v>-1.535629444446664</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4465620528607743</v>
+        <v>-0.4547062011118631</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5041816648556132</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.432151456099692</v>
+        <v>-1.477937104182497</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.577090430084198</v>
+        <v>-1.569163828998655</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4460539561251381</v>
+        <v>-0.4540900608174996</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5330238658929877</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.571002029545109</v>
+        <v>-1.618128001775369</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.542785140140207</v>
+        <v>-1.5343708829923</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4962226685768519</v>
+        <v>-0.5047668700048495</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5577323527445699</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.719024625097614</v>
+        <v>-1.76778147104542</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.575052202949289</v>
+        <v>-1.566502161328928</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5072504118074853</v>
+        <v>-0.5160048601605739</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5780776552927648</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.818060417127997</v>
+        <v>-1.867183005122575</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.59042942944274</v>
+        <v>-1.58210715532456</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5131898874413019</v>
+        <v>-0.5218129314662087</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5934806051330584</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.942333140409736</v>
+        <v>-1.992771961758268</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.59886558731201</v>
+        <v>-1.590296565066467</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5936239367694621</v>
+        <v>-0.6033449369587323</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.6035809339646109</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.017973121831398</v>
+        <v>-2.069628163239657</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.611820594022643</v>
+        <v>-1.603263252161827</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6345388644209966</v>
+        <v>-0.64519721548463</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6081349598430731</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.10305304418483</v>
+        <v>-2.155470960720588</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.610427708143916</v>
+        <v>-1.6016615794061</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.642735574403358</v>
+        <v>-0.6529208698855371</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6067366374431206</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.088827795635106</v>
+        <v>-2.14075659606041</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.601157862814737</v>
+        <v>-1.591790194263467</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6921056405493448</v>
+        <v>-0.7034691948408871</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5988275752744531</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.132454762615503</v>
+        <v>-2.184236828207671</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.590105298766558</v>
+        <v>-1.580247054056743</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6907185948629815</v>
+        <v>-0.7022894759834329</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5845875446083431</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.031028871860304</v>
+        <v>-2.081647279124017</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.544302130106661</v>
+        <v>-1.53279549110221</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7116060428515213</v>
+        <v>-0.7239011078250635</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5640592506716782</v>
       </c>
       <c r="E76" t="n">
-        <v>-2.010796255440536</v>
+        <v>-2.060151721105614</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.430720608970601</v>
+        <v>-1.41776852235615</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7139041585466116</v>
+        <v>-0.725556802360154</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.537391195985593</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.86188887074494</v>
+        <v>-1.910363927411199</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.44423189400387</v>
+        <v>-1.431341129409237</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6743733564852586</v>
+        <v>-0.6860829421743464</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5048700540239817</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.714965691404888</v>
+        <v>-1.761549985793421</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.408200827216425</v>
+        <v>-1.395058934350156</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6833190711382562</v>
+        <v>-0.695459371014162</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.467086385279934</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.549253153182933</v>
+        <v>-1.594739491407102</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.354209708862712</v>
+        <v>-1.341862082157897</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6564060046785362</v>
+        <v>-0.6676279343052604</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4242973016600821</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.355183560939349</v>
+        <v>-1.397615478557337</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.342196433170716</v>
+        <v>-1.32952613583781</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5887064947992816</v>
+        <v>-0.5988917902814607</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3769718996182571</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.197610790824209</v>
+        <v>-1.238807507757289</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.229398957859473</v>
+        <v>-1.216388469321386</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5319821664193878</v>
+        <v>-0.5414534983851125</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3266582798003482</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.9820522107786305</v>
+        <v>-1.020650042109893</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.198891252999936</v>
+        <v>-1.185911425471758</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4933054924912163</v>
+        <v>-0.5017650111299413</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2751673913012132</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.7146385627363387</v>
+        <v>-0.7510273413060562</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.113141168572777</v>
+        <v>-1.100575994702417</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4643264579828604</v>
+        <v>-0.472184436808131</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2243092289829277</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.4082795919171482</v>
+        <v>-0.4409934294420486</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.049672878060976</v>
+        <v>-1.037694643523161</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4098447634706023</v>
+        <v>-0.4171085027228731</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1749093993969692</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.1834190454843904</v>
+        <v>-0.2134069732235642</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9887231705059923</v>
+        <v>-0.9778823134309953</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3728091835966123</v>
+        <v>-0.3797283514994286</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1277600425055731</v>
       </c>
       <c r="E86" t="n">
-        <v>0.08073285512281138</v>
+        <v>0.0542519628980003</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9352328486474613</v>
+        <v>-0.9248796476348277</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.282429286673182</v>
+        <v>-0.2882256775940896</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.08267106158306776</v>
       </c>
       <c r="E87" t="n">
-        <v>0.3287906456239266</v>
+        <v>0.3057759075669327</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8305649211063985</v>
+        <v>-0.82163380693431</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2184923207241992</v>
+        <v>-0.2235689079362887</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0403735764920389</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5331448166198717</v>
+        <v>0.5119930999268774</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6962083756847982</v>
+        <v>-0.6887037284975275</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1877641486029347</v>
+        <v>-0.1921603534046608</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.00118874791563781</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8106298763932518</v>
+        <v>0.793465551036529</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5399058474087493</v>
+        <v>-0.5339181901879326</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1117598851825915</v>
+        <v>-0.1150435333390451</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.03423055711494546</v>
       </c>
       <c r="E90" t="n">
-        <v>1.056969190291367</v>
+        <v>1.042806723809553</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4025138620061498</v>
+        <v>-0.3968225945477877</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05906382948551472</v>
+        <v>-0.06165249475069585</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06463074074461286</v>
       </c>
       <c r="E91" t="n">
-        <v>1.232598375146775</v>
+        <v>1.220739864552414</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.223132353557107</v>
+        <v>-0.2179856840366539</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.03496865584124847</v>
+        <v>-0.03631044003679356</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08836522082169049</v>
       </c>
       <c r="E92" t="n">
-        <v>1.351475490708561</v>
+        <v>1.341577824700291</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.07410524491805615</v>
+        <v>-0.07019523613060265</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.03616151513152088</v>
+        <v>-0.03758506202015686</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1049265652783124</v>
       </c>
       <c r="E93" t="n">
-        <v>1.45361461495617</v>
+        <v>1.445944982334627</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09320458591535348</v>
+        <v>0.09656269652444349</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03597316892779365</v>
+        <v>-0.03699958273570247</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1145618102911016</v>
       </c>
       <c r="E94" t="n">
-        <v>1.455899590218442</v>
+        <v>1.450745620457534</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2316697066647709</v>
+        <v>0.2345051200573155</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05774832615560599</v>
+        <v>-0.05800529461960592</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.118891218857726</v>
       </c>
       <c r="E95" t="n">
-        <v>1.494440479674159</v>
+        <v>1.491748150994523</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3969325500747264</v>
+        <v>0.4003505226555437</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08199826489750857</v>
+        <v>-0.08120837888032696</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1187888385392163</v>
       </c>
       <c r="E96" t="n">
-        <v>1.432230750616721</v>
+        <v>1.430674339351812</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4398973852458967</v>
+        <v>0.4432175346046232</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.118356382457317</v>
+        <v>-0.1179650895689534</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1158739126928024</v>
       </c>
       <c r="E97" t="n">
-        <v>1.360538009208831</v>
+        <v>1.35969994160465</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5175880042112395</v>
+        <v>0.5212176837652386</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1532807327918531</v>
+        <v>-0.1536194639489439</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1102061364593224</v>
       </c>
       <c r="E98" t="n">
-        <v>1.269178420016401</v>
+        <v>1.267892117648311</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5423328992559602</v>
+        <v>0.5460063802526864</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1931853071644787</v>
+        <v>-0.1933502925987514</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1035788239727404</v>
       </c>
       <c r="E99" t="n">
-        <v>1.206603678936236</v>
+        <v>1.205499882579509</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5674398862272262</v>
+        <v>0.5704636458234981</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2161226626726544</v>
+        <v>-0.2165752775808361</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.09354845752403171</v>
       </c>
       <c r="E100" t="n">
-        <v>1.109225771513081</v>
+        <v>1.108840318817081</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5407867083276878</v>
+        <v>0.5442981239863233</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.2326197460518317</v>
+        <v>-0.2328869348524681</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.08114923993696881</v>
       </c>
       <c r="E101" t="n">
-        <v>1.020992145283286</v>
+        <v>1.020565811240741</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5263307721796008</v>
+        <v>0.5296596818268726</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.2247048253510157</v>
+        <v>-0.2245617406381067</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.05969278723549747</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9517960861108502</v>
+        <v>0.9526414539554864</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4671345823817985</v>
+        <v>0.4699188940911614</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2511419161330995</v>
+        <v>-0.2514193252703721</v>
       </c>
     </row>
   </sheetData>
